--- a/UPDATEDTEAMDATA.xlsx
+++ b/UPDATEDTEAMDATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\Math245\Math-245-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30BC3BD-6164-4F50-9439-3B684D1B5A8F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD53FBA-1ABE-4770-BC2C-0D5B52720A2D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teamdata" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>Rk</t>
   </si>
@@ -51,9 +51,6 @@
     <t>DRB</t>
   </si>
   <si>
-    <t>TRB</t>
-  </si>
-  <si>
     <t>AST</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>PF</t>
   </si>
   <si>
-    <t>PTS</t>
-  </si>
-  <si>
     <t>Golden State Warriors*</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>Playoff_Birth</t>
-  </si>
-  <si>
     <t>Playoff_Wins</t>
   </si>
   <si>
@@ -172,6 +163,15 @@
   </si>
   <si>
     <t>ThreeP</t>
+  </si>
+  <si>
+    <t>Conf</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>East</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,7 +1024,7 @@
     <col min="27" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,10 +1038,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1068,24 +1068,18 @@
         <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>82</v>
@@ -1109,39 +1103,33 @@
         <v>35.036585365853661</v>
       </c>
       <c r="J2">
-        <v>44.426829268292686</v>
+        <v>30.378048780487806</v>
       </c>
       <c r="K2">
-        <v>30.378048780487806</v>
+        <v>9.5731707317073162</v>
       </c>
       <c r="L2">
-        <v>9.5731707317073162</v>
+        <v>6.7682926829268295</v>
       </c>
       <c r="M2">
-        <v>6.7682926829268295</v>
+        <v>14.768292682926829</v>
       </c>
       <c r="N2">
-        <v>14.768292682926829</v>
+        <v>19.329268292682926</v>
       </c>
       <c r="O2">
-        <v>19.329268292682926</v>
-      </c>
-      <c r="P2">
-        <v>115.89024390243902</v>
-      </c>
-      <c r="Q2">
         <v>16</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>82</v>
@@ -1165,39 +1153,33 @@
         <v>33.487804878048777</v>
       </c>
       <c r="J3">
-        <v>44.365853658536587</v>
+        <v>25.243902439024389</v>
       </c>
       <c r="K3">
-        <v>25.243902439024389</v>
+        <v>8.1707317073170724</v>
       </c>
       <c r="L3">
-        <v>8.1707317073170724</v>
+        <v>4.2926829268292686</v>
       </c>
       <c r="M3">
-        <v>4.2926829268292686</v>
+        <v>15.121951219512194</v>
       </c>
       <c r="N3">
-        <v>15.121951219512194</v>
+        <v>19.926829268292682</v>
       </c>
       <c r="O3">
-        <v>19.926829268292682</v>
-      </c>
-      <c r="P3">
-        <v>115.34146341463415</v>
-      </c>
-      <c r="Q3">
         <v>6</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>82</v>
@@ -1221,39 +1203,33 @@
         <v>34.597560975609753</v>
       </c>
       <c r="J4">
-        <v>46.378048780487802</v>
+        <v>25.329268292682926</v>
       </c>
       <c r="K4">
-        <v>25.329268292682926</v>
+        <v>6.9268292682926829</v>
       </c>
       <c r="L4">
-        <v>6.9268292682926829</v>
+        <v>3.9390243902439024</v>
       </c>
       <c r="M4">
-        <v>3.9390243902439024</v>
+        <v>14.951219512195122</v>
       </c>
       <c r="N4">
-        <v>14.951219512195122</v>
+        <v>19.109756097560975</v>
       </c>
       <c r="O4">
-        <v>19.109756097560975</v>
-      </c>
-      <c r="P4">
-        <v>111.71951219512195</v>
-      </c>
-      <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>82</v>
@@ -1277,39 +1253,33 @@
         <v>34.402439024390247</v>
       </c>
       <c r="J5">
-        <v>43.743902439024389</v>
+        <v>22.658536585365855</v>
       </c>
       <c r="K5">
-        <v>22.658536585365855</v>
+        <v>6.5731707317073171</v>
       </c>
       <c r="L5">
-        <v>6.5731707317073171</v>
+        <v>3.9878048780487805</v>
       </c>
       <c r="M5">
-        <v>3.9878048780487805</v>
+        <v>13.670731707317072</v>
       </c>
       <c r="N5">
-        <v>13.670731707317072</v>
+        <v>18.121951219512194</v>
       </c>
       <c r="O5">
-        <v>18.121951219512194</v>
-      </c>
-      <c r="P5">
-        <v>110.34146341463415</v>
-      </c>
-      <c r="Q5">
         <v>13</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>82</v>
@@ -1333,39 +1303,33 @@
         <v>32.573170731707314</v>
       </c>
       <c r="J6">
-        <v>42.853658536585364</v>
+        <v>23.853658536585368</v>
       </c>
       <c r="K6">
-        <v>23.853658536585368</v>
+        <v>8.4512195121951219</v>
       </c>
       <c r="L6">
-        <v>8.4512195121951219</v>
+        <v>4.0975609756097562</v>
       </c>
       <c r="M6">
-        <v>4.0975609756097562</v>
+        <v>14.170731707317072</v>
       </c>
       <c r="N6">
-        <v>14.170731707317072</v>
+        <v>21.280487804878049</v>
       </c>
       <c r="O6">
-        <v>21.280487804878049</v>
-      </c>
-      <c r="P6">
-        <v>109.1829268292683</v>
-      </c>
-      <c r="Q6">
         <v>7</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>82</v>
@@ -1389,39 +1353,33 @@
         <v>34.024390243902438</v>
       </c>
       <c r="J7">
-        <v>43.024390243902438</v>
+        <v>22.536585365853657</v>
       </c>
       <c r="K7">
-        <v>22.536585365853657</v>
+        <v>7.4634146341463419</v>
       </c>
       <c r="L7">
-        <v>7.4634146341463419</v>
+        <v>4.2317073170731705</v>
       </c>
       <c r="M7">
-        <v>4.2317073170731705</v>
+        <v>12.951219512195122</v>
       </c>
       <c r="N7">
-        <v>12.951219512195122</v>
+        <v>19.829268292682926</v>
       </c>
       <c r="O7">
-        <v>19.829268292682926</v>
-      </c>
-      <c r="P7">
-        <v>108.67073170731707</v>
-      </c>
-      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>82</v>
@@ -1445,39 +1403,33 @@
         <v>32.902439024390247</v>
       </c>
       <c r="J8">
-        <v>41.975609756097562</v>
+        <v>25.23170731707317</v>
       </c>
       <c r="K8">
-        <v>25.23170731707317</v>
+        <v>7.524390243902439</v>
       </c>
       <c r="L8">
-        <v>7.524390243902439</v>
+        <v>4.1463414634146343</v>
       </c>
       <c r="M8">
-        <v>4.1463414634146343</v>
+        <v>13.268292682926829</v>
       </c>
       <c r="N8">
-        <v>13.268292682926829</v>
+        <v>20.560975609756099</v>
       </c>
       <c r="O8">
-        <v>20.560975609756099</v>
-      </c>
-      <c r="P8">
-        <v>108.01219512195122</v>
-      </c>
-      <c r="Q8">
         <v>9</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>82</v>
@@ -1501,39 +1453,33 @@
         <v>33.536585365853661</v>
       </c>
       <c r="J9">
-        <v>43.658536585365852</v>
+        <v>21.134146341463413</v>
       </c>
       <c r="K9">
-        <v>21.134146341463413</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>4.975609756097561</v>
       </c>
       <c r="M9">
-        <v>4.975609756097561</v>
+        <v>13.731707317073171</v>
       </c>
       <c r="N9">
-        <v>13.731707317073171</v>
+        <v>21.170731707317074</v>
       </c>
       <c r="O9">
-        <v>21.170731707317074</v>
-      </c>
-      <c r="P9">
-        <v>107.9390243902439</v>
-      </c>
-      <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>82</v>
@@ -1557,39 +1503,33 @@
         <v>33.073170731707314</v>
       </c>
       <c r="J10">
-        <v>44.975609756097562</v>
+        <v>19.560975609756099</v>
       </c>
       <c r="K10">
-        <v>19.560975609756099</v>
+        <v>8.2073170731707314</v>
       </c>
       <c r="L10">
-        <v>8.2073170731707314</v>
+        <v>4.8658536585365857</v>
       </c>
       <c r="M10">
-        <v>4.8658536585365857</v>
+        <v>15.426829268292684</v>
       </c>
       <c r="N10">
-        <v>15.426829268292684</v>
+        <v>24.756097560975611</v>
       </c>
       <c r="O10">
-        <v>24.756097560975611</v>
-      </c>
-      <c r="P10">
-        <v>107.69512195121951</v>
-      </c>
-      <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>82</v>
@@ -1613,39 +1553,33 @@
         <v>32.634146341463413</v>
       </c>
       <c r="J11">
-        <v>43.256097560975611</v>
+        <v>18.5</v>
       </c>
       <c r="K11">
-        <v>18.5</v>
+        <v>8.2560975609756095</v>
       </c>
       <c r="L11">
-        <v>8.2560975609756095</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="M11">
-        <v>4.8780487804878048</v>
+        <v>12.695121951219512</v>
       </c>
       <c r="N11">
-        <v>12.695121951219512</v>
+        <v>20.829268292682926</v>
       </c>
       <c r="O11">
-        <v>20.829268292682926</v>
-      </c>
-      <c r="P11">
-        <v>106.85365853658537</v>
-      </c>
-      <c r="Q11">
         <v>4</v>
       </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>82</v>
@@ -1669,39 +1603,33 @@
         <v>34.402439024390247</v>
       </c>
       <c r="J12">
-        <v>46.621951219512198</v>
+        <v>20.987804878048781</v>
       </c>
       <c r="K12">
-        <v>20.987804878048781</v>
+        <v>7.9024390243902438</v>
       </c>
       <c r="L12">
-        <v>7.9024390243902438</v>
+        <v>4.975609756097561</v>
       </c>
       <c r="M12">
-        <v>4.975609756097561</v>
+        <v>15</v>
       </c>
       <c r="N12">
-        <v>15</v>
+        <v>20.914634146341463</v>
       </c>
       <c r="O12">
-        <v>20.914634146341463</v>
-      </c>
-      <c r="P12">
-        <v>106.59756097560975</v>
-      </c>
-      <c r="Q12">
         <v>1</v>
       </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>82</v>
@@ -1725,39 +1653,33 @@
         <v>35.109756097560975</v>
       </c>
       <c r="J13">
-        <v>43.902439024390247</v>
+        <v>21.414634146341463</v>
       </c>
       <c r="K13">
-        <v>21.414634146341463</v>
+        <v>7.2317073170731705</v>
       </c>
       <c r="L13">
-        <v>7.2317073170731705</v>
+        <v>4.7195121951219514</v>
       </c>
       <c r="M13">
-        <v>4.7195121951219514</v>
+        <v>16.536585365853657</v>
       </c>
       <c r="N13">
-        <v>16.536585365853657</v>
+        <v>21.048780487804876</v>
       </c>
       <c r="O13">
-        <v>21.048780487804876</v>
-      </c>
-      <c r="P13">
-        <v>105.76829268292683</v>
-      </c>
-      <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>82</v>
@@ -1781,39 +1703,33 @@
         <v>30.975609756097562</v>
       </c>
       <c r="J14">
-        <v>42.414634146341463</v>
+        <v>23.658536585365855</v>
       </c>
       <c r="K14">
-        <v>23.658536585365855</v>
+        <v>7.975609756097561</v>
       </c>
       <c r="L14">
-        <v>7.975609756097561</v>
+        <v>4.5121951219512191</v>
       </c>
       <c r="M14">
-        <v>4.5121951219512191</v>
+        <v>14.024390243902438</v>
       </c>
       <c r="N14">
-        <v>14.024390243902438</v>
+        <v>20.073170731707318</v>
       </c>
       <c r="O14">
-        <v>20.073170731707318</v>
-      </c>
-      <c r="P14">
-        <v>105.57317073170732</v>
-      </c>
-      <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>82</v>
@@ -1837,39 +1753,33 @@
         <v>33.865853658536587</v>
       </c>
       <c r="J15">
-        <v>43.878048780487802</v>
+        <v>23.829268292682926</v>
       </c>
       <c r="K15">
-        <v>23.829268292682926</v>
+        <v>7.9878048780487809</v>
       </c>
       <c r="L15">
-        <v>7.9878048780487809</v>
+        <v>5.9024390243902438</v>
       </c>
       <c r="M15">
-        <v>5.9024390243902438</v>
+        <v>13.426829268292684</v>
       </c>
       <c r="N15">
-        <v>13.426829268292684</v>
+        <v>18.26829268292683</v>
       </c>
       <c r="O15">
-        <v>18.26829268292683</v>
-      </c>
-      <c r="P15">
-        <v>105.32926829268293</v>
-      </c>
-      <c r="Q15">
         <v>8</v>
       </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>82</v>
@@ -1893,39 +1803,33 @@
         <v>32.951219512195124</v>
       </c>
       <c r="J16">
-        <v>42</v>
+        <v>22.487804878048781</v>
       </c>
       <c r="K16">
-        <v>22.487804878048781</v>
+        <v>8.1585365853658534</v>
       </c>
       <c r="L16">
-        <v>8.1585365853658534</v>
+        <v>4.9878048780487809</v>
       </c>
       <c r="M16">
-        <v>4.9878048780487809</v>
+        <v>13.780487804878049</v>
       </c>
       <c r="N16">
-        <v>13.780487804878049</v>
+        <v>19.475609756097562</v>
       </c>
       <c r="O16">
-        <v>19.475609756097562</v>
-      </c>
-      <c r="P16">
-        <v>105.09756097560975</v>
-      </c>
-      <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>82</v>
@@ -1949,39 +1853,33 @@
         <v>34.792682926829265</v>
       </c>
       <c r="J17">
-        <v>43.585365853658537</v>
+        <v>23.060975609756099</v>
       </c>
       <c r="K17">
-        <v>23.060975609756099</v>
+        <v>6.9634146341463419</v>
       </c>
       <c r="L17">
-        <v>6.9634146341463419</v>
+        <v>4.7560975609756095</v>
       </c>
       <c r="M17">
-        <v>4.7560975609756095</v>
+        <v>11.487804878048781</v>
       </c>
       <c r="N17">
-        <v>11.487804878048781</v>
+        <v>16.585365853658537</v>
       </c>
       <c r="O17">
-        <v>16.585365853658537</v>
-      </c>
-      <c r="P17">
-        <v>104.89024390243902</v>
-      </c>
-      <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>82</v>
@@ -2005,39 +1903,33 @@
         <v>32.146341463414636</v>
       </c>
       <c r="J18">
-        <v>43.524390243902438</v>
+        <v>20.926829268292682</v>
       </c>
       <c r="K18">
-        <v>20.926829268292682</v>
+        <v>8.2195121951219505</v>
       </c>
       <c r="L18">
-        <v>8.2195121951219505</v>
+        <v>3.9024390243902438</v>
       </c>
       <c r="M18">
-        <v>3.9024390243902438</v>
+        <v>15.158536585365853</v>
       </c>
       <c r="N18">
-        <v>15.158536585365853</v>
+        <v>20.707317073170731</v>
       </c>
       <c r="O18">
-        <v>20.707317073170731</v>
-      </c>
-      <c r="P18">
-        <v>104.57317073170732</v>
-      </c>
-      <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>82</v>
@@ -2061,39 +1953,33 @@
         <v>35.109756097560975</v>
       </c>
       <c r="J19">
-        <v>43.68292682926829</v>
+        <v>22.792682926829269</v>
       </c>
       <c r="K19">
-        <v>22.792682926829269</v>
+        <v>7.7804878048780486</v>
       </c>
       <c r="L19">
-        <v>7.7804878048780486</v>
+        <v>5.524390243902439</v>
       </c>
       <c r="M19">
-        <v>5.524390243902439</v>
+        <v>12.853658536585366</v>
       </c>
       <c r="N19">
-        <v>12.853658536585366</v>
+        <v>18.170731707317074</v>
       </c>
       <c r="O19">
-        <v>18.170731707317074</v>
-      </c>
-      <c r="P19">
-        <v>104.34146341463415</v>
-      </c>
-      <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>82</v>
@@ -2117,39 +2003,33 @@
         <v>33.207317073170735</v>
       </c>
       <c r="J20">
-        <v>45.195121951219512</v>
+        <v>21.780487804878049</v>
       </c>
       <c r="K20">
-        <v>21.780487804878049</v>
+        <v>7.0853658536585362</v>
       </c>
       <c r="L20">
-        <v>7.0853658536585362</v>
+        <v>5.5487804878048781</v>
       </c>
       <c r="M20">
-        <v>5.5487804878048781</v>
+        <v>13.890243902439025</v>
       </c>
       <c r="N20">
-        <v>13.890243902439025</v>
+        <v>20.341463414634145</v>
       </c>
       <c r="O20">
-        <v>20.341463414634145</v>
-      </c>
-      <c r="P20">
-        <v>104.34146341463415</v>
-      </c>
-      <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>82</v>
@@ -2173,39 +2053,33 @@
         <v>31.573170731707318</v>
       </c>
       <c r="J21">
-        <v>40.390243902439025</v>
+        <v>24.195121951219512</v>
       </c>
       <c r="K21">
-        <v>24.195121951219512</v>
+        <v>8.1219512195121943</v>
       </c>
       <c r="L21">
-        <v>8.1219512195121943</v>
+        <v>5.3170731707317076</v>
       </c>
       <c r="M21">
-        <v>5.3170731707317076</v>
+        <v>13.963414634146341</v>
       </c>
       <c r="N21">
-        <v>13.963414634146341</v>
+        <v>20.243902439024389</v>
       </c>
       <c r="O21">
-        <v>20.243902439024389</v>
-      </c>
-      <c r="P21">
-        <v>103.6219512195122</v>
-      </c>
-      <c r="Q21">
         <v>2</v>
       </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>82</v>
@@ -2229,39 +2103,33 @@
         <v>32.987804878048777</v>
       </c>
       <c r="J22">
-        <v>43.621951219512198</v>
+        <v>21.243902439024389</v>
       </c>
       <c r="K22">
-        <v>21.243902439024389</v>
+        <v>7.1707317073170733</v>
       </c>
       <c r="L22">
-        <v>7.1707317073170733</v>
+        <v>5.7195121951219514</v>
       </c>
       <c r="M22">
-        <v>5.7195121951219514</v>
+        <v>13.439024390243903</v>
       </c>
       <c r="N22">
-        <v>13.439024390243903</v>
+        <v>20.487804878048781</v>
       </c>
       <c r="O22">
-        <v>20.487804878048781</v>
-      </c>
-      <c r="P22">
-        <v>103.17073170731707</v>
-      </c>
-      <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>82</v>
@@ -2285,39 +2153,33 @@
         <v>34.060975609756099</v>
       </c>
       <c r="J23">
-        <v>44.329268292682926</v>
+        <v>23.634146341463413</v>
       </c>
       <c r="K23">
-        <v>23.634146341463413</v>
+        <v>8.1951219512195124</v>
       </c>
       <c r="L23">
-        <v>8.1951219512195124</v>
+        <v>4.8414634146341466</v>
       </c>
       <c r="M23">
-        <v>4.8414634146341466</v>
+        <v>15.780487804878049</v>
       </c>
       <c r="N23">
-        <v>15.780487804878049</v>
+        <v>18.182926829268293</v>
       </c>
       <c r="O23">
-        <v>18.182926829268293</v>
-      </c>
-      <c r="P23">
-        <v>103.15853658536585</v>
-      </c>
-      <c r="Q23">
         <v>0</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>82</v>
@@ -2341,39 +2203,33 @@
         <v>34.109756097560975</v>
       </c>
       <c r="J24">
-        <v>46.292682926829265</v>
+        <v>22.573170731707318</v>
       </c>
       <c r="K24">
-        <v>22.573170731707318</v>
+        <v>7.8414634146341466</v>
       </c>
       <c r="L24">
-        <v>7.8414634146341466</v>
+        <v>4.7926829268292686</v>
       </c>
       <c r="M24">
-        <v>4.7926829268292686</v>
+        <v>13.560975609756097</v>
       </c>
       <c r="N24">
-        <v>13.560975609756097</v>
+        <v>17.743902439024389</v>
       </c>
       <c r="O24">
-        <v>17.743902439024389</v>
-      </c>
-      <c r="P24">
-        <v>102.86585365853658</v>
-      </c>
-      <c r="Q24">
         <v>2</v>
       </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>82</v>
@@ -2397,39 +2253,33 @@
         <v>32.341463414634148</v>
       </c>
       <c r="J25">
-        <v>41.060975609756099</v>
+        <v>22.487804878048781</v>
       </c>
       <c r="K25">
-        <v>22.487804878048781</v>
+        <v>7.6463414634146343</v>
       </c>
       <c r="L25">
-        <v>7.6463414634146343</v>
+        <v>3.9512195121951219</v>
       </c>
       <c r="M25">
-        <v>3.9512195121951219</v>
+        <v>14.646341463414634</v>
       </c>
       <c r="N25">
-        <v>14.646341463414634</v>
+        <v>20.329268292682926</v>
       </c>
       <c r="O25">
-        <v>20.329268292682926</v>
-      </c>
-      <c r="P25">
-        <v>102.80487804878049</v>
-      </c>
-      <c r="Q25">
         <v>0</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>82</v>
@@ -2453,39 +2303,33 @@
         <v>33</v>
       </c>
       <c r="J26">
-        <v>42.841463414634148</v>
+        <v>23.76829268292683</v>
       </c>
       <c r="K26">
-        <v>23.76829268292683</v>
+        <v>8.4390243902439028</v>
       </c>
       <c r="L26">
-        <v>8.4390243902439028</v>
+        <v>5.1219512195121952</v>
       </c>
       <c r="M26">
-        <v>5.1219512195121952</v>
+        <v>16.658536585365855</v>
       </c>
       <c r="N26">
-        <v>16.658536585365855</v>
+        <v>21.865853658536587</v>
       </c>
       <c r="O26">
-        <v>21.865853658536587</v>
-      </c>
-      <c r="P26">
-        <v>102.4390243902439</v>
-      </c>
-      <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>82</v>
@@ -2509,39 +2353,33 @@
         <v>34.609756097560975</v>
       </c>
       <c r="J27">
-        <v>45.68292682926829</v>
+        <v>21.121951219512194</v>
       </c>
       <c r="K27">
-        <v>21.121951219512194</v>
+        <v>7</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>3.7804878048780486</v>
       </c>
       <c r="M27">
-        <v>3.7804878048780486</v>
+        <v>11.865853658536585</v>
       </c>
       <c r="N27">
-        <v>11.865853658536585</v>
+        <v>17.890243902439025</v>
       </c>
       <c r="O27">
-        <v>17.890243902439025</v>
-      </c>
-      <c r="P27">
-        <v>101.32926829268293</v>
-      </c>
-      <c r="Q27">
         <v>0</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>82</v>
@@ -2565,39 +2403,33 @@
         <v>33.341463414634148</v>
       </c>
       <c r="J28">
-        <v>43.18292682926829</v>
+        <v>22.195121951219512</v>
       </c>
       <c r="K28">
-        <v>22.195121951219512</v>
+        <v>7.0731707317073171</v>
       </c>
       <c r="L28">
-        <v>7.0731707317073171</v>
+        <v>4.8292682926829267</v>
       </c>
       <c r="M28">
-        <v>4.8292682926829267</v>
+        <v>13.304878048780488</v>
       </c>
       <c r="N28">
-        <v>13.304878048780488</v>
+        <v>19.317073170731707</v>
       </c>
       <c r="O28">
-        <v>19.317073170731707</v>
-      </c>
-      <c r="P28">
-        <v>101.07317073170732</v>
-      </c>
-      <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>82</v>
@@ -2621,39 +2453,33 @@
         <v>33.829268292682926</v>
       </c>
       <c r="J29">
-        <v>43.231707317073173</v>
+        <v>20.134146341463413</v>
       </c>
       <c r="K29">
-        <v>20.134146341463413</v>
+        <v>6.7073170731707314</v>
       </c>
       <c r="L29">
-        <v>6.7073170731707314</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>13.634146341463415</v>
       </c>
       <c r="N29">
-        <v>13.634146341463415</v>
+        <v>18.841463414634145</v>
       </c>
       <c r="O29">
-        <v>18.841463414634145</v>
-      </c>
-      <c r="P29">
-        <v>100.70731707317073</v>
-      </c>
-      <c r="Q29">
         <v>4</v>
       </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>82</v>
@@ -2677,39 +2503,33 @@
         <v>31.963414634146343</v>
       </c>
       <c r="J30">
-        <v>42.768292682926827</v>
+        <v>21.26829268292683</v>
       </c>
       <c r="K30">
-        <v>21.26829268292683</v>
+        <v>7.9634146341463419</v>
       </c>
       <c r="L30">
-        <v>7.9634146341463419</v>
+        <v>4.1951219512195124</v>
       </c>
       <c r="M30">
-        <v>4.1951219512195124</v>
+        <v>12.914634146341463</v>
       </c>
       <c r="N30">
-        <v>12.914634146341463</v>
+        <v>22.439024390243901</v>
       </c>
       <c r="O30">
-        <v>22.439024390243901</v>
-      </c>
-      <c r="P30">
-        <v>100.47560975609755</v>
-      </c>
-      <c r="Q30">
         <v>2</v>
       </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>82</v>
@@ -2733,31 +2553,25 @@
         <v>30.682926829268293</v>
       </c>
       <c r="J31">
-        <v>38.573170731707314</v>
+        <v>20.792682926829269</v>
       </c>
       <c r="K31">
-        <v>20.792682926829269</v>
+        <v>7.4878048780487809</v>
       </c>
       <c r="L31">
-        <v>7.4878048780487809</v>
+        <v>3.7439024390243905</v>
       </c>
       <c r="M31">
-        <v>3.7439024390243905</v>
+        <v>11.853658536585366</v>
       </c>
       <c r="N31">
-        <v>11.853658536585366</v>
+        <v>19.109756097560975</v>
       </c>
       <c r="O31">
-        <v>19.109756097560975</v>
-      </c>
-      <c r="P31">
-        <v>97.91463414634147</v>
-      </c>
-      <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31">
-        <v>0</v>
+      <c r="P31" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/UPDATEDTEAMDATA.xlsx
+++ b/UPDATEDTEAMDATA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\Math245\Math-245-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD53FBA-1ABE-4770-BC2C-0D5B52720A2D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC1CB2C-83F7-4F38-AA6A-0ECEF216AE5D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teamdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Rk</t>
   </si>
@@ -166,12 +166,6 @@
   </si>
   <si>
     <t>Conf</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>East</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
@@ -1120,8 +1114,8 @@
       <c r="O2">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
-        <v>46</v>
+      <c r="P2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1170,8 +1164,8 @@
       <c r="O3">
         <v>6</v>
       </c>
-      <c r="P3" t="s">
-        <v>46</v>
+      <c r="P3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1220,8 +1214,8 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" t="s">
-        <v>46</v>
+      <c r="P4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1270,8 +1264,8 @@
       <c r="O5">
         <v>13</v>
       </c>
-      <c r="P5" t="s">
-        <v>47</v>
+      <c r="P5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1320,8 +1314,8 @@
       <c r="O6">
         <v>7</v>
       </c>
-      <c r="P6" t="s">
-        <v>47</v>
+      <c r="P6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1370,8 +1364,8 @@
       <c r="O7">
         <v>3</v>
       </c>
-      <c r="P7" t="s">
-        <v>46</v>
+      <c r="P7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1420,8 +1414,8 @@
       <c r="O8">
         <v>9</v>
       </c>
-      <c r="P8" t="s">
-        <v>47</v>
+      <c r="P8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1470,8 +1464,8 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" t="s">
-        <v>46</v>
+      <c r="P9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1520,8 +1514,8 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" t="s">
-        <v>46</v>
+      <c r="P10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1570,8 +1564,8 @@
       <c r="O11">
         <v>4</v>
       </c>
-      <c r="P11" t="s">
-        <v>47</v>
+      <c r="P11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1620,8 +1614,8 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12" t="s">
-        <v>46</v>
+      <c r="P12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1670,8 +1664,8 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" t="s">
-        <v>47</v>
+      <c r="P13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1720,8 +1714,8 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" t="s">
-        <v>46</v>
+      <c r="P14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1770,8 +1764,8 @@
       <c r="O15">
         <v>8</v>
       </c>
-      <c r="P15" t="s">
-        <v>46</v>
+      <c r="P15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1820,8 +1814,8 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" t="s">
-        <v>47</v>
+      <c r="P16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1870,8 +1864,8 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" t="s">
-        <v>47</v>
+      <c r="P17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1920,8 +1914,8 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" t="s">
-        <v>46</v>
+      <c r="P18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1970,8 +1964,8 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" t="s">
-        <v>46</v>
+      <c r="P19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2020,8 +2014,8 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" t="s">
-        <v>47</v>
+      <c r="P20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2070,8 +2064,8 @@
       <c r="O21">
         <v>2</v>
       </c>
-      <c r="P21" t="s">
-        <v>47</v>
+      <c r="P21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2120,8 +2114,8 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" t="s">
-        <v>47</v>
+      <c r="P22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2170,8 +2164,8 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" t="s">
-        <v>47</v>
+      <c r="P23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2220,8 +2214,8 @@
       <c r="O24">
         <v>2</v>
       </c>
-      <c r="P24" t="s">
-        <v>47</v>
+      <c r="P24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2270,8 +2264,8 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25" t="s">
-        <v>46</v>
+      <c r="P25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2320,8 +2314,8 @@
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="P26" t="s">
-        <v>47</v>
+      <c r="P26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2370,8 +2364,8 @@
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="P27" t="s">
-        <v>47</v>
+      <c r="P27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2420,8 +2414,8 @@
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28" t="s">
-        <v>47</v>
+      <c r="P28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2470,8 +2464,8 @@
       <c r="O29">
         <v>4</v>
       </c>
-      <c r="P29" t="s">
-        <v>46</v>
+      <c r="P29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2520,8 +2514,8 @@
       <c r="O30">
         <v>2</v>
       </c>
-      <c r="P30" t="s">
-        <v>46</v>
+      <c r="P30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2570,8 +2564,8 @@
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="P31" t="s">
-        <v>46</v>
+      <c r="P31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
